--- a/data/output/FV2504_FV2410/UTILMD/55042.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55042.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="267">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="267">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -961,6 +961,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U123" totalsRowShown="0">
+  <autoFilter ref="A1:U123"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1250,7 +1280,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7140,5 +7173,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55042.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55042.xlsx
@@ -1305,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1328,6 +1328,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1336,6 +1339,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1778,7 +1784,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2142,7 +2148,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2288,7 +2294,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2490,7 +2496,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2798,7 +2804,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2998,7 +3004,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3372,7 +3378,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3680,7 +3686,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3856,52 +3862,52 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="2"/>
       <c r="L43" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V43" s="5"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="5" t="s">
@@ -4086,26 +4092,26 @@
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M47" s="5"/>
@@ -4123,33 +4129,33 @@
       <c r="A48" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="9" t="s">
+      <c r="J48" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M48" s="5"/>
@@ -4167,33 +4173,33 @@
       <c r="A49" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M49" s="5"/>
@@ -4211,31 +4217,31 @@
       <c r="A50" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="J50" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M50" s="5"/>
@@ -4253,31 +4259,31 @@
       <c r="A51" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M51" s="5"/>
@@ -4295,31 +4301,31 @@
       <c r="A52" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>250</v>
       </c>
       <c r="M52" s="5"/>
@@ -4347,29 +4353,29 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11" t="s">
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11" t="s">
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="V53" s="11"/>
+      <c r="V53" s="13"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
@@ -4385,35 +4391,35 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11" t="s">
+      <c r="S54" s="13"/>
+      <c r="T54" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U54" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V54" s="11"/>
+      <c r="U54" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -4429,35 +4435,35 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4473,33 +4479,33 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11" t="s">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="U56" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V56" s="11"/>
+      <c r="U56" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V56" s="13"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4515,33 +4521,33 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11" t="s">
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11" t="s">
+      <c r="S57" s="13"/>
+      <c r="T57" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U57" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V57" s="11"/>
+      <c r="U57" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4557,81 +4563,81 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11" t="s">
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="K59" s="2"/>
       <c r="L59" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O59" s="5" t="s">
+      <c r="O59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P59" s="5"/>
+      <c r="P59" s="2"/>
       <c r="Q59" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5" t="s">
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="V59" s="5"/>
+      <c r="V59" s="2"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -4808,22 +4814,22 @@
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
         <v>228</v>
       </c>
       <c r="K63" s="6" t="s">
@@ -4832,19 +4838,19 @@
       <c r="L63" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5" t="s">
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2" t="s">
         <v>228</v>
       </c>
       <c r="V63" s="6" t="s">
@@ -5020,22 +5026,22 @@
       </c>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5" t="s">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>230</v>
       </c>
       <c r="K67" s="6" t="s">
@@ -5044,19 +5050,19 @@
       <c r="L67" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>230</v>
       </c>
       <c r="V67" s="6" t="s">
@@ -5252,7 +5258,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5460,7 +5466,7 @@
         <v>244</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5608,7 +5614,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5734,52 +5740,52 @@
       <c r="V80" s="5"/>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="2"/>
       <c r="F81" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5" t="s">
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="2"/>
       <c r="L81" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O81" s="5" t="s">
+      <c r="O81" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P81" s="5"/>
+      <c r="P81" s="2"/>
       <c r="Q81" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5" t="s">
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V81" s="5"/>
+      <c r="V81" s="2"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
@@ -5918,7 +5924,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6234,7 +6240,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6780,7 +6786,7 @@
         <v>246</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7214,7 +7220,7 @@
         <v>248</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7740,52 +7746,52 @@
       <c r="V117" s="5"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5" t="s">
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K118" s="5"/>
+      <c r="K118" s="2"/>
       <c r="L118" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N118" s="5" t="s">
+      <c r="N118" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O118" s="5" t="s">
+      <c r="O118" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P118" s="5"/>
+      <c r="P118" s="2"/>
       <c r="Q118" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="5" t="s">
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="V118" s="5"/>
+      <c r="V118" s="2"/>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="5" t="s">
@@ -7908,48 +7914,48 @@
       </c>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5" t="s">
+      <c r="C121" s="2"/>
+      <c r="D121" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E121" s="5"/>
+      <c r="E121" s="2"/>
       <c r="F121" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5" t="s">
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K121" s="5"/>
+      <c r="K121" s="2"/>
       <c r="L121" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="M121" s="5" t="s">
+      <c r="M121" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5" t="s">
+      <c r="N121" s="2"/>
+      <c r="O121" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P121" s="5"/>
+      <c r="P121" s="2"/>
       <c r="Q121" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-      <c r="U121" s="5" t="s">
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="V121" s="5"/>
+      <c r="V121" s="2"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="5" t="s">
